--- a/outputs/All combined 2.xlsx
+++ b/outputs/All combined 2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Melad\Dropbox\Ali Work\Kyle\California VAT\policy_engile_cali_v2\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE6BA4-796A-4C7B-977C-7D7B045B6256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BDCFE-C478-4FC5-97AF-8D9E86C4D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01-04 results" sheetId="1" r:id="rId1"/>
+    <sheet name="010 results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>mfj</t>
   </si>
@@ -144,6 +145,66 @@
   </si>
   <si>
     <t>Distribution</t>
+  </si>
+  <si>
+    <t>After-Tax Income by Decile</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Baseline After-Tax Income ($)</t>
+  </si>
+  <si>
+    <t>Reform After-Tax Income ($)</t>
+  </si>
+  <si>
+    <t>Percent Change</t>
+  </si>
+  <si>
+    <t>Baseline MTR on AGI (+$1 wages), by Decile (Population-weighted)</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>(Negative in decile 1 reflects refundable credits at the margin.)</t>
+  </si>
+  <si>
+    <t>VAT Distribution by Factor Income (Totals; $ Billions)</t>
+  </si>
+  <si>
+    <t>Total Wage Income</t>
+  </si>
+  <si>
+    <t>Total Tax Change</t>
+  </si>
+  <si>
+    <t>% of Total Change (signed)</t>
+  </si>
+  <si>
+    <t>% of Relief</t>
+  </si>
+  <si>
+    <t>Total Non-Wage Income ($B)</t>
+  </si>
+  <si>
+    <t>Positive Non-Wage Income ($B)</t>
+  </si>
+  <si>
+    <t>Non-Wage Income Losses ($B)</t>
+  </si>
+  <si>
+    <t>Baseline MTR (income tax only)</t>
+  </si>
+  <si>
+    <t>Net MTR (baseline + rebate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebate-only MTR </t>
+  </si>
+  <si>
+    <t>Baseline vs. Rebate-Only Marginal Tax Rates by AGI Decile</t>
   </si>
 </sst>
 </file>
@@ -154,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +232,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -374,11 +444,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -411,12 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -434,6 +495,73 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,6 +578,190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A0B3C5-9809-4FEB-B658-3235A56BAF38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="8977312"/>
+          <a:ext cx="13182600" cy="661988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>By “non-wage,” I mean AGI minus wages. The bins are equivalized-income deciles (household size adjusted).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Within each row, Positive minus Losses equals Total Non-Wage Income. Across deciles, Total Tax Change sums to the statewide change. The elimination test comes out at about −$729.4B.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEA6B08-D45E-6A06-7B44-B7AAD72551C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="8977312"/>
+          <a:ext cx="13182600" cy="661988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>By “non-wage,” I mean AGI minus wages. The bins are equivalized-income deciles (household size adjusted).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Within each row, Positive minus Losses equals Total Non-Wage Income. Across deciles, Total Tax Change sums to the statewide change. The elimination test comes out at about −$729.4B.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M65"/>
+  <dimension ref="B2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,905 +1044,1924 @@
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>SUM(276442014600.61/1000000000)</f>
         <v>276.44201460060998</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>SUM(208830160014.613/1000000000)</f>
         <v>208.830160014613</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>SUM(115062592784.435/1000000000)</f>
         <v>115.062592784435</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>SUM(74998737348.0059/1000000000)</f>
         <v>74.998737348005903</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>SUM(43567165132.5419/1000000000)</f>
         <v>43.567165132541902</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>SUM(43567165132.5419/1000000000)</f>
         <v>43.567165132541902</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>1682219.98448191</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f>SUM(47265774294.387/1000000000)</f>
         <v>47.265774294387001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f>SUM(47249858296.3167/1000000000)</f>
         <v>47.249858296316702</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>1396223.2569313501</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f>SUM(33794763347.664/1000000000)</f>
         <v>33.794763347664002</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f>SUM(33708286255.3538/1000000000)</f>
         <v>33.708286255353805</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>1325857.2265107799</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f>SUM(46771257293.236/1000000000)</f>
         <v>46.771257293235998</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f>SUM(45181580029.2168/1000000000)</f>
         <v>45.181580029216796</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>1433899.9646318599</v>
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f>SUM(40603149757.1922/1000000000)</f>
         <v>40.603149757192199</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f>SUM(32738291575.1056/1000000000)</f>
         <v>32.738291575105599</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>1381186.0478792</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>6</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f>SUM(43745695091.1304/1000000000)</f>
         <v>43.745695091130401</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f>SUM(30939697702.6802/1000000000)</f>
         <v>30.939697702680199</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>1540305.7095659601</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>7</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f>SUM(36139073460.1201/1000000000)</f>
         <v>36.139073460120102</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f>SUM(35662482767.2201/1000000000)</f>
         <v>35.662482767220098</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>1352874.1766191199</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f>SUM(42861488314.3115/1000000000)</f>
         <v>42.861488314311501</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f>SUM(14781535604.1841/1000000000)</f>
         <v>14.7815356041841</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>1671987.33773994</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>9</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f>SUM(27265373845.4124/1000000000)</f>
         <v>27.265373845412398</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>1242327.4097615799</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>10</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <f>SUM(29490866849.0499/1000000000)</f>
         <v>29.490866849049901</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>0</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <v>1404709.5404376399</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>2024</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <f>SUM(391504607385.045/1000000000)</f>
         <v>391.50460738504501</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <f>SUM(283828897362.619/1000000000)</f>
         <v>283.82889736261905</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>2024</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="31">
         <v>7.5441039500418305E-2</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="32">
         <v>0.101713475463842</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="34">
         <v>1</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="35">
         <v>7.9242166080100901E-2</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="36">
         <v>0.22282344252456199</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="35">
         <v>0.29160000000000003</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="37">
         <v>0.29160000000000003</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="34">
         <v>2</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="36">
         <v>0.13832011232680799</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="36">
         <v>0.116996280883742</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="36">
         <v>0.39439999999999997</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="37">
         <v>0.39439999999999997</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="34">
         <v>3</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="36">
         <v>0.198367743091797</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="36">
         <v>0.36802589550427001</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="36">
         <v>0.49719999999999898</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="37">
         <v>0.49719999999999998</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="34">
         <v>4</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="36">
         <v>0.246663183049946</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="36">
         <v>0.245203584302152</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="36">
         <v>0.6</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="37">
         <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="34">
         <v>5</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="36">
         <v>0.51011276422176599</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="36">
         <v>0.26502586129716599</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="35">
         <v>0.70279999999999998</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="37">
         <v>0.70279999999999998</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="34">
         <v>6</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="35">
         <v>8.3387316657533208E-3</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="36">
         <v>0.15499035376522</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="35">
         <v>0.80559999999999998</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="37">
         <v>0.80559999999999998</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="34">
         <v>7</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="36">
         <v>0.108791030956566</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="35">
         <v>5.7049744332273798E-2</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="35">
         <v>0.90839999999999999</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="38">
         <v>0.90839999999999899</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="34">
         <v>2</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="35">
         <v>6.2661413822871104E-2</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="36">
         <v>0.30515650913827902</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="35">
         <v>0.29160000000000003</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="37">
         <v>0.29160000000000003</v>
       </c>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="34">
         <v>3</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="36">
         <v>0.35241276886623601</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="36">
         <v>0.30393086706314298</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="36">
         <v>0.34300000000000003</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="37">
         <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="34">
         <v>4</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="35">
         <v>4.0653925964665001E-2</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="36">
         <v>0.29419488377802899</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="36">
         <v>0.39439999999999997</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="37">
         <v>0.39439999999999997</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="34">
         <v>5</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="36">
         <v>0.44980251848255898</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="36">
         <v>0.229140601357079</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="36">
         <v>0.44579999999999897</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="37">
         <v>0.44579999999999997</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="34">
         <v>6</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="36">
         <v>0.83701255064949998</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="36">
         <v>0.26853128506874402</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="36">
         <v>0.49719999999999898</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="38">
         <v>0.49719999999999898</v>
       </c>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <v>7</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>8.8642229102501302E-3</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="39">
         <v>0.18521397280221499</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="27">
         <v>0.54859999999999998</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="40">
         <v>0.54859999999999998</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="44">
+      <c r="B54" s="41">
         <v>1</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="44">
         <v>-2872.82221546551</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="44">
         <v>-25898.6134598559</v>
       </c>
-      <c r="E54" s="47">
+      <c r="E54" s="44">
         <v>-23025.791244390399</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="42">
         <v>-38734446189.822197</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="43">
         <v>11.656511224218001</v>
       </c>
-      <c r="H54" s="48">
+      <c r="H54" s="45">
         <v>5.3102144618276999</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="44">
+      <c r="B55" s="41">
         <v>2</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="44">
         <v>-3991.9466289909201</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="44">
         <v>-33841.191272062999</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="44">
         <v>-29849.244643072099</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="42">
         <v>-41676209572.490898</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="43">
         <v>9.6747703725246694</v>
       </c>
-      <c r="H55" s="48">
+      <c r="H55" s="45">
         <v>5.7135090999223701</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="44">
+      <c r="B56" s="41">
         <v>3</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="44">
         <v>-2409.6963406747</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="44">
         <v>-25423.767794412299</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="44">
         <v>-23014.071453737601</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="42">
         <v>-30513372948.3736</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="43">
         <v>9.1871870415885599</v>
       </c>
-      <c r="H56" s="48">
+      <c r="H56" s="45">
         <v>4.1831643471946904</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="44">
+      <c r="B57" s="41">
         <v>4</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="44">
         <v>1268.9872509343099</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="44">
         <v>-31509.576081771102</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="44">
         <v>-32778.563332705402</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="42">
         <v>-47001180803.449799</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="43">
         <v>9.9358414394802193</v>
       </c>
-      <c r="H57" s="48">
+      <c r="H57" s="45">
         <v>6.4435244227407598</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="44">
+      <c r="B58" s="41">
         <v>5</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="46">
         <v>3402.1691282740398</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="44">
         <v>-23703.028006527202</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="44">
         <v>-27105.197134801299</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="42">
         <v>-37437320107.603104</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="43">
         <v>9.5705738954205195</v>
       </c>
-      <c r="H58" s="48">
+      <c r="H58" s="45">
         <v>5.1323877892361098</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="44">
+      <c r="B59" s="41">
         <v>6</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="46">
         <v>7719.9602716089903</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="44">
         <v>-20086.725323766099</v>
       </c>
-      <c r="E59" s="47">
+      <c r="E59" s="44">
         <v>-27806.6855953751</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="42">
         <v>-42830796586.661903</v>
       </c>
-      <c r="G59" s="46">
+      <c r="G59" s="43">
         <v>10.6731527136222</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H59" s="45">
         <v>5.87179468970578</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="44">
+      <c r="B60" s="41">
         <v>7</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="44">
         <v>7858.7323469699604</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="44">
         <v>-26360.531809648099</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="44">
         <v>-34219.264156618097</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="42">
         <v>-46294358820.397202</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="43">
         <v>9.3743940567751007</v>
       </c>
-      <c r="H60" s="48">
+      <c r="H60" s="45">
         <v>6.3466242037999798</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="44">
+      <c r="B61" s="41">
         <v>8</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="46">
         <v>22872.541177082101</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="44">
         <v>-8840.6982939024692</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E61" s="44">
         <v>-31713.239470984499</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="42">
         <v>-53024134834.200897</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="43">
         <v>11.5856067273617</v>
       </c>
-      <c r="H61" s="48">
+      <c r="H61" s="45">
         <v>7.2692281759396904</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="44">
+      <c r="B62" s="41">
         <v>9</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="46">
         <v>72222.304037341106</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="44">
         <v>0</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="44">
         <v>-72222.304037341106</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="42">
         <v>-89723747901.723801</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="43">
         <v>8.6083886350330694</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H62" s="45">
         <v>12.3004816266692</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="44">
+      <c r="B63" s="41">
         <v>10</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="46">
         <v>215131.474837343</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="44">
         <v>0</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="44">
         <v>-215131.474837343</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="42">
         <v>-302197235152.43701</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="43">
         <v>9.7335738939757803</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H63" s="45">
         <v>41.429071182963597</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="46">
         <v>339869.85896931699</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="44">
         <v>0</v>
       </c>
-      <c r="E64" s="47">
+      <c r="E64" s="44">
         <v>-339869.85896931699</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="42">
         <v>-252178519644.40302</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="43">
         <v>5.1413981608215096</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="45">
         <v>34.571864417926598</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="47">
         <v>493836.59631288098</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="48">
         <v>0</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="48">
         <v>-493836.59631288098</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="49">
         <v>-101185893296.33501</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="24">
         <v>1.41978471911633</v>
       </c>
-      <c r="H65" s="26">
+      <c r="H65" s="25">
         <v>13.871859462814101</v>
       </c>
     </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="60">
+        <v>1</v>
+      </c>
+      <c r="D70" s="42">
+        <v>7074.2506060457399</v>
+      </c>
+      <c r="E70" s="42">
+        <v>27835.5611755424</v>
+      </c>
+      <c r="F70" s="42">
+        <v>293.47717130283502</v>
+      </c>
+      <c r="G70" s="42">
+        <v>1668220</v>
+      </c>
+      <c r="H70" s="62"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="60">
+        <v>2</v>
+      </c>
+      <c r="D71" s="42">
+        <v>20172.993014810101</v>
+      </c>
+      <c r="E71" s="42">
+        <v>40385.119648794003</v>
+      </c>
+      <c r="F71" s="42">
+        <v>100.193990148834</v>
+      </c>
+      <c r="G71" s="42">
+        <v>1354264.0107942</v>
+      </c>
+      <c r="H71" s="62"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="60">
+        <v>3</v>
+      </c>
+      <c r="D72" s="42">
+        <v>29238.216581493201</v>
+      </c>
+      <c r="E72" s="42">
+        <v>58647.452784383502</v>
+      </c>
+      <c r="F72" s="42">
+        <v>100.584918101692</v>
+      </c>
+      <c r="G72" s="42">
+        <v>1419536.31501777</v>
+      </c>
+      <c r="H72" s="62"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="60">
+        <v>4</v>
+      </c>
+      <c r="D73" s="42">
+        <v>35206.032105099097</v>
+      </c>
+      <c r="E73" s="42">
+        <v>59100.469791813397</v>
+      </c>
+      <c r="F73" s="42">
+        <v>67.870294543227999</v>
+      </c>
+      <c r="G73" s="42">
+        <v>1504654.5068969701</v>
+      </c>
+      <c r="H73" s="62"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="60">
+        <v>5</v>
+      </c>
+      <c r="D74" s="42">
+        <v>55097.596316201503</v>
+      </c>
+      <c r="E74" s="42">
+        <v>87492.668675392197</v>
+      </c>
+      <c r="F74" s="42">
+        <v>58.7957996811284</v>
+      </c>
+      <c r="G74" s="42">
+        <v>1532581.48744886</v>
+      </c>
+      <c r="H74" s="62"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="60">
+        <v>6</v>
+      </c>
+      <c r="D75" s="42">
+        <v>77456.0996243072</v>
+      </c>
+      <c r="E75" s="42">
+        <v>110585.109162947</v>
+      </c>
+      <c r="F75" s="42">
+        <v>42.771337182390099</v>
+      </c>
+      <c r="G75" s="42">
+        <v>1641657.2962096599</v>
+      </c>
+      <c r="H75" s="62"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="60">
+        <v>7</v>
+      </c>
+      <c r="D76" s="42">
+        <v>104832.327842379</v>
+      </c>
+      <c r="E76" s="42">
+        <v>142138.22079162701</v>
+      </c>
+      <c r="F76" s="42">
+        <v>35.586248743173499</v>
+      </c>
+      <c r="G76" s="42">
+        <v>992273.91165632498</v>
+      </c>
+      <c r="H76" s="62"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="60">
+        <v>8</v>
+      </c>
+      <c r="D77" s="42">
+        <v>127975.43122028701</v>
+      </c>
+      <c r="E77" s="42">
+        <v>158388.66237204499</v>
+      </c>
+      <c r="F77" s="42">
+        <v>23.764898357253099</v>
+      </c>
+      <c r="G77" s="42">
+        <v>1471398.9429979001</v>
+      </c>
+      <c r="H77" s="62"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="60">
+        <v>9</v>
+      </c>
+      <c r="D78" s="42">
+        <v>161986.85870578099</v>
+      </c>
+      <c r="E78" s="42">
+        <v>206279.362736835</v>
+      </c>
+      <c r="F78" s="42">
+        <v>27.343269932471902</v>
+      </c>
+      <c r="G78" s="42">
+        <v>1413902.0741687</v>
+      </c>
+      <c r="H78" s="62"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="60">
+        <v>10</v>
+      </c>
+      <c r="D79" s="42">
+        <v>499097.132644489</v>
+      </c>
+      <c r="E79" s="42">
+        <v>737250.48251716595</v>
+      </c>
+      <c r="F79" s="42">
+        <v>47.716833917840802</v>
+      </c>
+      <c r="G79" s="42">
+        <v>1433101.6553386401</v>
+      </c>
+      <c r="H79" s="62"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="42">
+        <v>598766.24916965002</v>
+      </c>
+      <c r="E80" s="42">
+        <v>938636.10813896696</v>
+      </c>
+      <c r="F80" s="42">
+        <v>56.7616928042683</v>
+      </c>
+      <c r="G80" s="42">
+        <v>741985.53649080603</v>
+      </c>
+      <c r="H80" s="62"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="42">
+        <v>784699.12410422403</v>
+      </c>
+      <c r="E81" s="42">
+        <v>1278535.7204171</v>
+      </c>
+      <c r="F81" s="42">
+        <v>62.933241690134601</v>
+      </c>
+      <c r="G81" s="42">
+        <v>204897.51883885599</v>
+      </c>
+      <c r="H81" s="62"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="49">
+        <v>109607.61976112099</v>
+      </c>
+      <c r="E82" s="49">
+        <v>160151.79194401999</v>
+      </c>
+      <c r="F82" s="49">
+        <v>46.113739439880497</v>
+      </c>
+      <c r="G82" s="49">
+        <v>14431590.6545594</v>
+      </c>
+      <c r="H82" s="64"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="71">
+        <v>1</v>
+      </c>
+      <c r="D87" s="72">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="E87" s="72">
+        <v>0</v>
+      </c>
+      <c r="F87" s="73">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="71">
+        <v>2</v>
+      </c>
+      <c r="D88" s="72">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E88" s="72">
+        <v>0</v>
+      </c>
+      <c r="F88" s="73">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="71">
+        <v>3</v>
+      </c>
+      <c r="D89" s="72">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="E89" s="72">
+        <v>0</v>
+      </c>
+      <c r="F89" s="73">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="71">
+        <v>4</v>
+      </c>
+      <c r="D90" s="72">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E90" s="72">
+        <v>0</v>
+      </c>
+      <c r="F90" s="73">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="71">
+        <v>5</v>
+      </c>
+      <c r="D91" s="72">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="E91" s="72">
+        <v>0.1124</v>
+      </c>
+      <c r="F91" s="73">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="71">
+        <v>6</v>
+      </c>
+      <c r="D92" s="72">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E92" s="72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F92" s="73">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="71">
+        <v>7</v>
+      </c>
+      <c r="D93" s="72">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E93" s="72">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="F93" s="73">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="71">
+        <v>8</v>
+      </c>
+      <c r="D94" s="72">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E94" s="72">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="F94" s="73">
+        <v>0.1943</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="71">
+        <v>9</v>
+      </c>
+      <c r="D95" s="72">
+        <v>0</v>
+      </c>
+      <c r="E95" s="72">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F95" s="73">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="71">
+        <v>10</v>
+      </c>
+      <c r="D96" s="72">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E96" s="72">
+        <v>0</v>
+      </c>
+      <c r="F96" s="73">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="75">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E97" s="75">
+        <v>5.79E-2</v>
+      </c>
+      <c r="F97" s="76">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="60">
+        <v>1</v>
+      </c>
+      <c r="D101" s="34">
+        <v>1682219.9839999999</v>
+      </c>
+      <c r="E101" s="42">
+        <f>SUM(14065200944/1000000000)</f>
+        <v>14.065200944000001</v>
+      </c>
+      <c r="F101" s="42">
+        <f>-5216234184/1000000000</f>
+        <v>-5.2162341840000002</v>
+      </c>
+      <c r="G101" s="42">
+        <f>1101522459/1000000000</f>
+        <v>1.1015224589999999</v>
+      </c>
+      <c r="H101" s="42">
+        <f>6317756643/1000000000</f>
+        <v>6.3177566430000001</v>
+      </c>
+      <c r="I101" s="42">
+        <f>-38734446190/1000000000</f>
+        <v>-38.73444619</v>
+      </c>
+      <c r="J101" s="42">
+        <v>5.3102144620000002</v>
+      </c>
+      <c r="K101" s="61">
+        <v>5.3102144620000002</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="60">
+        <v>2</v>
+      </c>
+      <c r="D102" s="34">
+        <v>1396223.257</v>
+      </c>
+      <c r="E102" s="42">
+        <f>SUM(34514437783/1000000000)</f>
+        <v>34.514437782999998</v>
+      </c>
+      <c r="F102" s="42">
+        <f>-2838330981/1000000000</f>
+        <v>-2.8383309809999999</v>
+      </c>
+      <c r="G102" s="42">
+        <f>3952938586/1000000000</f>
+        <v>3.9529385860000001</v>
+      </c>
+      <c r="H102" s="42">
+        <f>6791269568/1000000000</f>
+        <v>6.7912695679999997</v>
+      </c>
+      <c r="I102" s="42">
+        <f>-41676209572/1000000000</f>
+        <v>-41.676209571999998</v>
+      </c>
+      <c r="J102" s="42">
+        <v>5.7135090999999996</v>
+      </c>
+      <c r="K102" s="61">
+        <v>5.7135090999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="60">
+        <v>3</v>
+      </c>
+      <c r="D103" s="34">
+        <v>1325857.227</v>
+      </c>
+      <c r="E103" s="42">
+        <f>SUM(26569415150/1000000000)</f>
+        <v>26.569415150000001</v>
+      </c>
+      <c r="F103" s="42">
+        <f>7288732182/1000000000</f>
+        <v>7.2887321820000004</v>
+      </c>
+      <c r="G103" s="42">
+        <f>9042720154/1000000000</f>
+        <v>9.0427201539999995</v>
+      </c>
+      <c r="H103" s="42">
+        <f>1753987972/1000000000</f>
+        <v>1.753987972</v>
+      </c>
+      <c r="I103" s="42">
+        <f>-30513372948/1000000000</f>
+        <v>-30.513372948000001</v>
+      </c>
+      <c r="J103" s="42">
+        <v>4.1831643469999999</v>
+      </c>
+      <c r="K103" s="61">
+        <v>4.1831643469999999</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="60">
+        <v>4</v>
+      </c>
+      <c r="D104" s="34">
+        <v>1433899.9650000001</v>
+      </c>
+      <c r="E104" s="42">
+        <f>SUM(52447544853/1000000000)</f>
+        <v>52.447544852999997</v>
+      </c>
+      <c r="F104" s="42">
+        <f>20438397453/1000000000</f>
+        <v>20.438397453</v>
+      </c>
+      <c r="G104" s="42">
+        <f>24101062182/1000000000</f>
+        <v>24.101062182</v>
+      </c>
+      <c r="H104" s="42">
+        <f>3662664729/1000000000</f>
+        <v>3.6626647289999998</v>
+      </c>
+      <c r="I104" s="42">
+        <f>-47001180803/1000000000</f>
+        <v>-47.001180802999997</v>
+      </c>
+      <c r="J104" s="42">
+        <v>6.4435244230000004</v>
+      </c>
+      <c r="K104" s="61">
+        <v>6.4435244230000004</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="60">
+        <v>5</v>
+      </c>
+      <c r="D105" s="34">
+        <v>1381186.048</v>
+      </c>
+      <c r="E105" s="42">
+        <f>SUM(57365153544/1000000000)</f>
+        <v>57.365153544000002</v>
+      </c>
+      <c r="F105" s="42">
+        <f>40755400075/1000000000</f>
+        <v>40.755400074999997</v>
+      </c>
+      <c r="G105" s="42">
+        <f>43630679976/1000000000</f>
+        <v>43.630679976000003</v>
+      </c>
+      <c r="H105" s="42">
+        <f>2875279901/1000000000</f>
+        <v>2.8752799009999999</v>
+      </c>
+      <c r="I105" s="42">
+        <f>-37437320108/1000000000</f>
+        <v>-37.437320108000002</v>
+      </c>
+      <c r="J105" s="42">
+        <v>5.132387789</v>
+      </c>
+      <c r="K105" s="61">
+        <v>5.132387789</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="60">
+        <v>6</v>
+      </c>
+      <c r="D106" s="34">
+        <v>1540305.71</v>
+      </c>
+      <c r="E106" s="42">
+        <f>SUM(120169000000/1000000000)</f>
+        <v>120.169</v>
+      </c>
+      <c r="F106" s="42">
+        <f>37176107365/1000000000</f>
+        <v>37.176107365</v>
+      </c>
+      <c r="G106" s="42">
+        <f>51183126610/1000000000</f>
+        <v>51.183126610000002</v>
+      </c>
+      <c r="H106" s="42">
+        <f>14007019244/1000000000</f>
+        <v>14.007019244</v>
+      </c>
+      <c r="I106" s="42">
+        <f>-42830796587/1000000000</f>
+        <v>-42.830796587000002</v>
+      </c>
+      <c r="J106" s="42">
+        <v>5.8717946899999998</v>
+      </c>
+      <c r="K106" s="61">
+        <v>5.8717946899999998</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="60">
+        <v>7</v>
+      </c>
+      <c r="D107" s="34">
+        <v>1352874.1769999999</v>
+      </c>
+      <c r="E107" s="42">
+        <f>SUM(127502000000/1000000000)</f>
+        <v>127.502</v>
+      </c>
+      <c r="F107" s="42">
+        <f>-14421007856/1000000000</f>
+        <v>-14.421007855999999</v>
+      </c>
+      <c r="G107" s="42">
+        <f>758221042.6/1000000000</f>
+        <v>0.75822104260000001</v>
+      </c>
+      <c r="H107" s="42">
+        <f>15179228898/1000000000</f>
+        <v>15.179228898</v>
+      </c>
+      <c r="I107" s="42">
+        <f>-46294358820/1000000000</f>
+        <v>-46.294358819999999</v>
+      </c>
+      <c r="J107" s="42">
+        <v>6.3466242040000003</v>
+      </c>
+      <c r="K107" s="61">
+        <v>6.3466242040000003</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="60">
+        <v>8</v>
+      </c>
+      <c r="D108" s="34">
+        <v>1671987.338</v>
+      </c>
+      <c r="E108" s="42">
+        <f>SUM(154448000000/1000000000)</f>
+        <v>154.44800000000001</v>
+      </c>
+      <c r="F108" s="42">
+        <f>93999380053/1000000000</f>
+        <v>93.999380052999996</v>
+      </c>
+      <c r="G108" s="42">
+        <f>100839000000/1000000000</f>
+        <v>100.839</v>
+      </c>
+      <c r="H108" s="42">
+        <f>6839635625/1000000000</f>
+        <v>6.8396356249999997</v>
+      </c>
+      <c r="I108" s="42">
+        <f>-53024134834/1000000000</f>
+        <v>-53.024134834000002</v>
+      </c>
+      <c r="J108" s="42">
+        <v>7.2692281760000004</v>
+      </c>
+      <c r="K108" s="61">
+        <v>7.2692281760000004</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="60">
+        <v>9</v>
+      </c>
+      <c r="D109" s="34">
+        <v>1242327.4099999999</v>
+      </c>
+      <c r="E109" s="42">
+        <f>SUM(156431000000/1000000000)</f>
+        <v>156.43100000000001</v>
+      </c>
+      <c r="F109" s="42">
+        <f>205688000000/1000000000</f>
+        <v>205.68799999999999</v>
+      </c>
+      <c r="G109" s="42">
+        <f>206769000000/1000000000</f>
+        <v>206.76900000000001</v>
+      </c>
+      <c r="H109" s="42">
+        <f>1080835219/1000000000</f>
+        <v>1.0808352189999999</v>
+      </c>
+      <c r="I109" s="42">
+        <f>-89723747902/1000000000</f>
+        <v>-89.723747901999999</v>
+      </c>
+      <c r="J109" s="42">
+        <v>12.30048163</v>
+      </c>
+      <c r="K109" s="61">
+        <v>12.30048163</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="60">
+        <v>10</v>
+      </c>
+      <c r="D110" s="34">
+        <v>1404709.54</v>
+      </c>
+      <c r="E110" s="42">
+        <f>SUM(385715000000/1000000000)</f>
+        <v>385.71499999999997</v>
+      </c>
+      <c r="F110" s="42">
+        <f>515319000000/1000000000</f>
+        <v>515.31899999999996</v>
+      </c>
+      <c r="G110" s="42">
+        <f>515734000000/1000000000</f>
+        <v>515.73400000000004</v>
+      </c>
+      <c r="H110" s="42">
+        <f>415870192/1000000000</f>
+        <v>0.41587019200000003</v>
+      </c>
+      <c r="I110" s="42">
+        <f>-302197000000/1000000000</f>
+        <v>-302.197</v>
+      </c>
+      <c r="J110" s="42">
+        <v>41.429071180000001</v>
+      </c>
+      <c r="K110" s="61">
+        <v>41.429071180000001</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="34">
+        <v>741985.53650000005</v>
+      </c>
+      <c r="E111" s="42">
+        <f>SUM(297083000000/1000000000)</f>
+        <v>297.08300000000003</v>
+      </c>
+      <c r="F111" s="42">
+        <f>399372000000/1000000000</f>
+        <v>399.37200000000001</v>
+      </c>
+      <c r="G111" s="42">
+        <f>399788000000/1000000000</f>
+        <v>399.78800000000001</v>
+      </c>
+      <c r="H111" s="42">
+        <f>415863943.4/1000000000</f>
+        <v>0.41586394339999999</v>
+      </c>
+      <c r="I111" s="42">
+        <f>-252179000000/1000000000</f>
+        <v>-252.179</v>
+      </c>
+      <c r="J111" s="34"/>
+      <c r="K111" s="62"/>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="34">
+        <v>204897.51879999999</v>
+      </c>
+      <c r="E112" s="42">
+        <f>SUM(100360000000/1000000000)</f>
+        <v>100.36</v>
+      </c>
+      <c r="F112" s="42">
+        <f>161609000000/1000000000</f>
+        <v>161.60900000000001</v>
+      </c>
+      <c r="G112" s="42">
+        <f>162019000000/1000000000</f>
+        <v>162.01900000000001</v>
+      </c>
+      <c r="H112" s="42">
+        <f>410330175.6/1000000000</f>
+        <v>0.41033017560000001</v>
+      </c>
+      <c r="I112" s="42">
+        <f>-101186000000/1000000000</f>
+        <v>-101.18600000000001</v>
+      </c>
+      <c r="J112" s="34"/>
+      <c r="K112" s="62"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="26">
+        <v>14431590.65</v>
+      </c>
+      <c r="E113" s="49">
+        <f>SUM(1129230000000/1000000000)</f>
+        <v>1129.23</v>
+      </c>
+      <c r="F113" s="49">
+        <f>898189000000/1000000000</f>
+        <v>898.18899999999996</v>
+      </c>
+      <c r="G113" s="49">
+        <f>957113000000/1000000000</f>
+        <v>957.11300000000006</v>
+      </c>
+      <c r="H113" s="49">
+        <f>58923547992/1000000000</f>
+        <v>58.923547992000003</v>
+      </c>
+      <c r="I113" s="49">
+        <f>-729433000000/1000000000</f>
+        <v>-729.43299999999999</v>
+      </c>
+      <c r="J113" s="26"/>
+      <c r="K113" s="64"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C127" s="65"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C128" s="65"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" s="65"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" s="65"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" s="65"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C132" s="65"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C133" s="65"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C134" s="65"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C135" s="65"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C136" s="65"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C137" s="65"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C99:K99"/>
+    <mergeCell ref="C85:F85"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="D34:I34"/>
@@ -1639,5 +2970,885 @@
     <mergeCell ref="E24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EC54D9-4E73-498F-A634-257C9E0C7534}">
+  <dimension ref="C1:K48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="B1:L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="60">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>7074.2506060457399</v>
+      </c>
+      <c r="E3" s="42">
+        <v>27835.5611755424</v>
+      </c>
+      <c r="F3" s="42">
+        <v>293.47717130283502</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1668220</v>
+      </c>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="60">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42">
+        <v>20172.993014810101</v>
+      </c>
+      <c r="E4" s="42">
+        <v>40385.119648794003</v>
+      </c>
+      <c r="F4" s="42">
+        <v>100.193990148834</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1354264.0107942</v>
+      </c>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="60">
+        <v>3</v>
+      </c>
+      <c r="D5" s="42">
+        <v>29238.216581493201</v>
+      </c>
+      <c r="E5" s="42">
+        <v>58647.452784383502</v>
+      </c>
+      <c r="F5" s="42">
+        <v>100.584918101692</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1419536.31501777</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="60">
+        <v>4</v>
+      </c>
+      <c r="D6" s="42">
+        <v>35206.032105099097</v>
+      </c>
+      <c r="E6" s="42">
+        <v>59100.469791813397</v>
+      </c>
+      <c r="F6" s="42">
+        <v>67.870294543227999</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1504654.5068969701</v>
+      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="60">
+        <v>5</v>
+      </c>
+      <c r="D7" s="42">
+        <v>55097.596316201503</v>
+      </c>
+      <c r="E7" s="42">
+        <v>87492.668675392197</v>
+      </c>
+      <c r="F7" s="42">
+        <v>58.7957996811284</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1532581.48744886</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="60">
+        <v>6</v>
+      </c>
+      <c r="D8" s="42">
+        <v>77456.0996243072</v>
+      </c>
+      <c r="E8" s="42">
+        <v>110585.109162947</v>
+      </c>
+      <c r="F8" s="42">
+        <v>42.771337182390099</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1641657.2962096599</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="60">
+        <v>7</v>
+      </c>
+      <c r="D9" s="42">
+        <v>104832.327842379</v>
+      </c>
+      <c r="E9" s="42">
+        <v>142138.22079162701</v>
+      </c>
+      <c r="F9" s="42">
+        <v>35.586248743173499</v>
+      </c>
+      <c r="G9" s="42">
+        <v>992273.91165632498</v>
+      </c>
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="60">
+        <v>8</v>
+      </c>
+      <c r="D10" s="42">
+        <v>127975.43122028701</v>
+      </c>
+      <c r="E10" s="42">
+        <v>158388.66237204499</v>
+      </c>
+      <c r="F10" s="42">
+        <v>23.764898357253099</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1471398.9429979001</v>
+      </c>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="60">
+        <v>9</v>
+      </c>
+      <c r="D11" s="42">
+        <v>161986.85870578099</v>
+      </c>
+      <c r="E11" s="42">
+        <v>206279.362736835</v>
+      </c>
+      <c r="F11" s="42">
+        <v>27.343269932471902</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1413902.0741687</v>
+      </c>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="60">
+        <v>10</v>
+      </c>
+      <c r="D12" s="42">
+        <v>499097.132644489</v>
+      </c>
+      <c r="E12" s="42">
+        <v>737250.48251716595</v>
+      </c>
+      <c r="F12" s="42">
+        <v>47.716833917840802</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1433101.6553386401</v>
+      </c>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="42">
+        <v>598766.24916965002</v>
+      </c>
+      <c r="E13" s="42">
+        <v>938636.10813896696</v>
+      </c>
+      <c r="F13" s="42">
+        <v>56.7616928042683</v>
+      </c>
+      <c r="G13" s="42">
+        <v>741985.53649080603</v>
+      </c>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="42">
+        <v>784699.12410422403</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1278535.7204171</v>
+      </c>
+      <c r="F14" s="42">
+        <v>62.933241690134601</v>
+      </c>
+      <c r="G14" s="42">
+        <v>204897.51883885599</v>
+      </c>
+      <c r="H14" s="62"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="49">
+        <v>109607.61976112099</v>
+      </c>
+      <c r="E15" s="49">
+        <v>160151.79194401999</v>
+      </c>
+      <c r="F15" s="49">
+        <v>46.113739439880497</v>
+      </c>
+      <c r="G15" s="49">
+        <v>14431590.6545594</v>
+      </c>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="55">
+        <v>1</v>
+      </c>
+      <c r="E19" s="58">
+        <v>-0.15818495302714899</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="55">
+        <v>2</v>
+      </c>
+      <c r="E20" s="58">
+        <v>1.2222057130366899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="55">
+        <v>3</v>
+      </c>
+      <c r="E21" s="58">
+        <v>8.2868694700764106E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="55">
+        <v>4</v>
+      </c>
+      <c r="E22" s="58">
+        <v>5.6269821403648898E-3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="55">
+        <v>5</v>
+      </c>
+      <c r="E23" s="58">
+        <v>5.42549149788593E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="55">
+        <v>6</v>
+      </c>
+      <c r="E24" s="58">
+        <v>5.2802061696839296E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="55">
+        <v>7</v>
+      </c>
+      <c r="E25" s="58">
+        <v>1.56691067037647E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="55">
+        <v>8</v>
+      </c>
+      <c r="E26" s="58">
+        <v>1.0705665382839901E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="55">
+        <v>9</v>
+      </c>
+      <c r="E27" s="58">
+        <v>-4.5369349224524401E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="55">
+        <v>10</v>
+      </c>
+      <c r="E28" s="58">
+        <v>2.3882772449697299E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="58">
+        <v>-2.3386822310726501E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="56"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="60">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1682219.9839999999</v>
+      </c>
+      <c r="E34" s="42">
+        <f>SUM(14065200944/1000000000)</f>
+        <v>14.065200944000001</v>
+      </c>
+      <c r="F34" s="42">
+        <f>-5216234184/1000000000</f>
+        <v>-5.2162341840000002</v>
+      </c>
+      <c r="G34" s="42">
+        <f>1101522459/1000000000</f>
+        <v>1.1015224589999999</v>
+      </c>
+      <c r="H34" s="42">
+        <f>6317756643/1000000000</f>
+        <v>6.3177566430000001</v>
+      </c>
+      <c r="I34" s="42">
+        <f>-38734446190/1000000000</f>
+        <v>-38.73444619</v>
+      </c>
+      <c r="J34" s="42">
+        <v>5.3102144620000002</v>
+      </c>
+      <c r="K34" s="61">
+        <v>5.3102144620000002</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="60">
+        <v>2</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1396223.257</v>
+      </c>
+      <c r="E35" s="42">
+        <f>SUM(34514437783/1000000000)</f>
+        <v>34.514437782999998</v>
+      </c>
+      <c r="F35" s="42">
+        <f>-2838330981/1000000000</f>
+        <v>-2.8383309809999999</v>
+      </c>
+      <c r="G35" s="42">
+        <f>3952938586/1000000000</f>
+        <v>3.9529385860000001</v>
+      </c>
+      <c r="H35" s="42">
+        <f>6791269568/1000000000</f>
+        <v>6.7912695679999997</v>
+      </c>
+      <c r="I35" s="42">
+        <f>-41676209572/1000000000</f>
+        <v>-41.676209571999998</v>
+      </c>
+      <c r="J35" s="42">
+        <v>5.7135090999999996</v>
+      </c>
+      <c r="K35" s="61">
+        <v>5.7135090999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="60">
+        <v>3</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1325857.227</v>
+      </c>
+      <c r="E36" s="42">
+        <f>SUM(26569415150/1000000000)</f>
+        <v>26.569415150000001</v>
+      </c>
+      <c r="F36" s="42">
+        <f>7288732182/1000000000</f>
+        <v>7.2887321820000004</v>
+      </c>
+      <c r="G36" s="42">
+        <f>9042720154/1000000000</f>
+        <v>9.0427201539999995</v>
+      </c>
+      <c r="H36" s="42">
+        <f>1753987972/1000000000</f>
+        <v>1.753987972</v>
+      </c>
+      <c r="I36" s="42">
+        <f>-30513372948/1000000000</f>
+        <v>-30.513372948000001</v>
+      </c>
+      <c r="J36" s="42">
+        <v>4.1831643469999999</v>
+      </c>
+      <c r="K36" s="61">
+        <v>4.1831643469999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="60">
+        <v>4</v>
+      </c>
+      <c r="D37" s="34">
+        <v>1433899.9650000001</v>
+      </c>
+      <c r="E37" s="42">
+        <f>SUM(52447544853/1000000000)</f>
+        <v>52.447544852999997</v>
+      </c>
+      <c r="F37" s="42">
+        <f>20438397453/1000000000</f>
+        <v>20.438397453</v>
+      </c>
+      <c r="G37" s="42">
+        <f>24101062182/1000000000</f>
+        <v>24.101062182</v>
+      </c>
+      <c r="H37" s="42">
+        <f>3662664729/1000000000</f>
+        <v>3.6626647289999998</v>
+      </c>
+      <c r="I37" s="42">
+        <f>-47001180803/1000000000</f>
+        <v>-47.001180802999997</v>
+      </c>
+      <c r="J37" s="42">
+        <v>6.4435244230000004</v>
+      </c>
+      <c r="K37" s="61">
+        <v>6.4435244230000004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="60">
+        <v>5</v>
+      </c>
+      <c r="D38" s="34">
+        <v>1381186.048</v>
+      </c>
+      <c r="E38" s="42">
+        <f>SUM(57365153544/1000000000)</f>
+        <v>57.365153544000002</v>
+      </c>
+      <c r="F38" s="42">
+        <f>40755400075/1000000000</f>
+        <v>40.755400074999997</v>
+      </c>
+      <c r="G38" s="42">
+        <f>43630679976/1000000000</f>
+        <v>43.630679976000003</v>
+      </c>
+      <c r="H38" s="42">
+        <f>2875279901/1000000000</f>
+        <v>2.8752799009999999</v>
+      </c>
+      <c r="I38" s="42">
+        <f>-37437320108/1000000000</f>
+        <v>-37.437320108000002</v>
+      </c>
+      <c r="J38" s="42">
+        <v>5.132387789</v>
+      </c>
+      <c r="K38" s="61">
+        <v>5.132387789</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="60">
+        <v>6</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1540305.71</v>
+      </c>
+      <c r="E39" s="42">
+        <f>SUM(120169000000/1000000000)</f>
+        <v>120.169</v>
+      </c>
+      <c r="F39" s="42">
+        <f>37176107365/1000000000</f>
+        <v>37.176107365</v>
+      </c>
+      <c r="G39" s="42">
+        <f>51183126610/1000000000</f>
+        <v>51.183126610000002</v>
+      </c>
+      <c r="H39" s="42">
+        <f>14007019244/1000000000</f>
+        <v>14.007019244</v>
+      </c>
+      <c r="I39" s="42">
+        <f>-42830796587/1000000000</f>
+        <v>-42.830796587000002</v>
+      </c>
+      <c r="J39" s="42">
+        <v>5.8717946899999998</v>
+      </c>
+      <c r="K39" s="61">
+        <v>5.8717946899999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="60">
+        <v>7</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1352874.1769999999</v>
+      </c>
+      <c r="E40" s="42">
+        <f>SUM(127502000000/1000000000)</f>
+        <v>127.502</v>
+      </c>
+      <c r="F40" s="42">
+        <f>-14421007856/1000000000</f>
+        <v>-14.421007855999999</v>
+      </c>
+      <c r="G40" s="42">
+        <f>758221042.6/1000000000</f>
+        <v>0.75822104260000001</v>
+      </c>
+      <c r="H40" s="42">
+        <f>15179228898/1000000000</f>
+        <v>15.179228898</v>
+      </c>
+      <c r="I40" s="42">
+        <f>-46294358820/1000000000</f>
+        <v>-46.294358819999999</v>
+      </c>
+      <c r="J40" s="42">
+        <v>6.3466242040000003</v>
+      </c>
+      <c r="K40" s="61">
+        <v>6.3466242040000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="60">
+        <v>8</v>
+      </c>
+      <c r="D41" s="34">
+        <v>1671987.338</v>
+      </c>
+      <c r="E41" s="42">
+        <f>SUM(154448000000/1000000000)</f>
+        <v>154.44800000000001</v>
+      </c>
+      <c r="F41" s="42">
+        <f>93999380053/1000000000</f>
+        <v>93.999380052999996</v>
+      </c>
+      <c r="G41" s="42">
+        <f>100839000000/1000000000</f>
+        <v>100.839</v>
+      </c>
+      <c r="H41" s="42">
+        <f>6839635625/1000000000</f>
+        <v>6.8396356249999997</v>
+      </c>
+      <c r="I41" s="42">
+        <f>-53024134834/1000000000</f>
+        <v>-53.024134834000002</v>
+      </c>
+      <c r="J41" s="42">
+        <v>7.2692281760000004</v>
+      </c>
+      <c r="K41" s="61">
+        <v>7.2692281760000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="60">
+        <v>9</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1242327.4099999999</v>
+      </c>
+      <c r="E42" s="42">
+        <f>SUM(156431000000/1000000000)</f>
+        <v>156.43100000000001</v>
+      </c>
+      <c r="F42" s="42">
+        <f>205688000000/1000000000</f>
+        <v>205.68799999999999</v>
+      </c>
+      <c r="G42" s="42">
+        <f>206769000000/1000000000</f>
+        <v>206.76900000000001</v>
+      </c>
+      <c r="H42" s="42">
+        <f>1080835219/1000000000</f>
+        <v>1.0808352189999999</v>
+      </c>
+      <c r="I42" s="42">
+        <f>-89723747902/1000000000</f>
+        <v>-89.723747901999999</v>
+      </c>
+      <c r="J42" s="42">
+        <v>12.30048163</v>
+      </c>
+      <c r="K42" s="61">
+        <v>12.30048163</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="60">
+        <v>10</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1404709.54</v>
+      </c>
+      <c r="E43" s="42">
+        <f>SUM(385715000000/1000000000)</f>
+        <v>385.71499999999997</v>
+      </c>
+      <c r="F43" s="42">
+        <f>515319000000/1000000000</f>
+        <v>515.31899999999996</v>
+      </c>
+      <c r="G43" s="42">
+        <f>515734000000/1000000000</f>
+        <v>515.73400000000004</v>
+      </c>
+      <c r="H43" s="42">
+        <f>415870192/1000000000</f>
+        <v>0.41587019200000003</v>
+      </c>
+      <c r="I43" s="42">
+        <f>-302197000000/1000000000</f>
+        <v>-302.197</v>
+      </c>
+      <c r="J43" s="42">
+        <v>41.429071180000001</v>
+      </c>
+      <c r="K43" s="61">
+        <v>41.429071180000001</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="34">
+        <v>741985.53650000005</v>
+      </c>
+      <c r="E44" s="42">
+        <f>SUM(297083000000/1000000000)</f>
+        <v>297.08300000000003</v>
+      </c>
+      <c r="F44" s="42">
+        <f>399372000000/1000000000</f>
+        <v>399.37200000000001</v>
+      </c>
+      <c r="G44" s="42">
+        <f>399788000000/1000000000</f>
+        <v>399.78800000000001</v>
+      </c>
+      <c r="H44" s="42">
+        <f>415863943.4/1000000000</f>
+        <v>0.41586394339999999</v>
+      </c>
+      <c r="I44" s="42">
+        <f>-252179000000/1000000000</f>
+        <v>-252.179</v>
+      </c>
+      <c r="J44" s="34"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="34">
+        <v>204897.51879999999</v>
+      </c>
+      <c r="E45" s="42">
+        <f>SUM(100360000000/1000000000)</f>
+        <v>100.36</v>
+      </c>
+      <c r="F45" s="42">
+        <f>161609000000/1000000000</f>
+        <v>161.60900000000001</v>
+      </c>
+      <c r="G45" s="42">
+        <f>162019000000/1000000000</f>
+        <v>162.01900000000001</v>
+      </c>
+      <c r="H45" s="42">
+        <f>410330175.6/1000000000</f>
+        <v>0.41033017560000001</v>
+      </c>
+      <c r="I45" s="42">
+        <f>-101186000000/1000000000</f>
+        <v>-101.18600000000001</v>
+      </c>
+      <c r="J45" s="34"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="26">
+        <v>14431590.65</v>
+      </c>
+      <c r="E46" s="49">
+        <f>SUM(1129230000000/1000000000)</f>
+        <v>1129.23</v>
+      </c>
+      <c r="F46" s="49">
+        <f>898189000000/1000000000</f>
+        <v>898.18899999999996</v>
+      </c>
+      <c r="G46" s="49">
+        <f>957113000000/1000000000</f>
+        <v>957.11300000000006</v>
+      </c>
+      <c r="H46" s="49">
+        <f>58923547992/1000000000</f>
+        <v>58.923547992000003</v>
+      </c>
+      <c r="I46" s="49">
+        <f>-729433000000/1000000000</f>
+        <v>-729.43299999999999</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="64"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C32:K32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>